--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Newegg" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Links</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,12 +524,18 @@
     <col min="2" max="2" width="109.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -537,7 +543,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -545,7 +551,7 @@
         <v>299.99</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,12 +577,18 @@
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -584,7 +596,7 @@
         <v>179.99</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -599,15 +611,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -615,7 +638,7 @@
         <v>113.99</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -630,10 +653,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,12 +664,23 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -654,7 +688,7 @@
         <v>549.99</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -669,10 +703,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,12 +715,23 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>

--- a/output.xlsx
+++ b/output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Newegg" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="PCM" sheetId="4" r:id="rId4"/>
     <sheet name="Insight" sheetId="5" r:id="rId5"/>
     <sheet name="Zones" sheetId="6" r:id="rId6"/>
+    <sheet name="Provantage" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Links</t>
   </si>
@@ -78,7 +79,22 @@
     <t>65SE3B-B</t>
   </si>
   <si>
-    <t>See price in cart</t>
+    <t>NECJ044</t>
+  </si>
+  <si>
+    <t>AXM9718</t>
+  </si>
+  <si>
+    <t>IOG90EM</t>
+  </si>
+  <si>
+    <t>OCZT0WJ</t>
+  </si>
+  <si>
+    <t>http://www.zones.com/site/product/index.html?id=001598026</t>
+  </si>
+  <si>
+    <t>C7C95AW#ABA</t>
   </si>
 </sst>
 </file>
@@ -436,7 +452,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +509,8 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
+      <c r="C6" s="1">
+        <v>345.99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,7 +518,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>1199</v>
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
@@ -516,7 +532,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +585,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +630,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +672,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +693,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>714.99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +747,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>34.99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,6 +759,53 @@
       </c>
       <c r="C3" s="1">
         <v>7845.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>57.21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>21.17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>51.2</v>
       </c>
     </row>
   </sheetData>
